--- a/xlsx/country_comparison/petition_only_positive.xlsx
+++ b/xlsx/country_comparison/petition_only_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Petition for GCS</t>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681895214481907</v>
+        <v>0.510380196530389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.663290810587498</v>
+        <v>0.696630594730689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.763641134026349</v>
+        <v>0.692773054387497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.705491528454673</v>
+        <v>0.666048128290673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.763311307061962</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.729734713272285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.643972435966532</v>
+        <v>0.557145338963668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.650990562380297</v>
+        <v>0.665952273858717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.759561269770559</v>
+        <v>0.659427032145515</v>
       </c>
       <c r="E3" t="n">
-        <v>0.64093295484262</v>
+        <v>0.664950430252853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.557145338963668</v>
+        <v>0.746059216793303</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.64304231631188</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/petition_only_positive.xlsx
+++ b/xlsx/country_comparison/petition_only_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.510380196530389</v>
+        <v>0.510632323755612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.696630594730689</v>
+        <v>0.691951410757099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.692773054387497</v>
+        <v>0.693091880420722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.666048128290673</v>
+        <v>0.656978514559047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.763311307061962</v>
+        <v>0.781832319583008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.729734713272285</v>
+        <v>0.692552700180898</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.557145338963668</v>
+        <v>0.57372741563391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.665952273858717</v>
+        <v>0.674017108978727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.659427032145515</v>
+        <v>0.648274021891491</v>
       </c>
       <c r="E3" t="n">
-        <v>0.664950430252853</v>
+        <v>0.660516788041267</v>
       </c>
       <c r="F3" t="n">
-        <v>0.746059216793303</v>
+        <v>0.735905831480895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.64304231631188</v>
+        <v>0.678988666007824</v>
       </c>
     </row>
   </sheetData>
